--- a/medicine/Sexualité et sexologie/Serbis/Serbis.xlsx
+++ b/medicine/Sexualité et sexologie/Serbis/Serbis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Serbis est un film philippin réalisé par Brillante Mendoza, sorti en 2008. 
 Il a été tourné en douze jours en mars-avril 2008, et présenté en sélection officielle au Festival de Cannes le mois suivant.
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aux Philippines, une famille exploite un vieux cinéma et y projette des films érotiques[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux Philippines, une famille exploite un vieux cinéma et y projette des films érotiques,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Serbis
 Réalisation : Brillante Mendoza
@@ -583,7 +599,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gina Pareño : Nanay Flor
 Jaclyn Jose : Nayda
@@ -620,7 +638,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Festival de Cannes : compétition officielle
 Festival de Bangkok : Kinnari d'Or
